--- a/Data/NoSales_last_three_month_copy.xlsx
+++ b/Data/NoSales_last_three_month_copy.xlsx
@@ -79,27 +79,27 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -112,21 +112,21 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
@@ -145,15 +145,15 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>50 's</t>
   </si>
   <si>
@@ -208,13 +208,13 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
   <si>
     <t>6's</t>
@@ -718,7 +718,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -735,7 +735,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -837,7 +837,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -854,7 +854,7 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -871,7 +871,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -888,7 +888,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5">

--- a/Data/NoSales_last_three_month_copy.xlsx
+++ b/Data/NoSales_last_three_month_copy.xlsx
@@ -79,46 +79,49 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
+    <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
@@ -127,9 +130,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Sk-Mox 500mg Capsule</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -175,27 +175,27 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
+    <t>60 's</t>
   </si>
   <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -208,16 +208,16 @@
     <t>48 's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -718,7 +718,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -735,7 +735,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -820,7 +820,7 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -837,7 +837,7 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -871,7 +871,7 @@
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -888,7 +888,7 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -922,7 +922,7 @@
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5">

--- a/Data/NoSales_last_three_month_copy.xlsx
+++ b/Data/NoSales_last_three_month_copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,193 +31,121 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>Desodin</t>
-  </si>
-  <si>
-    <t>Dinafex</t>
-  </si>
-  <si>
-    <t>Dorenta</t>
-  </si>
-  <si>
-    <t>Etorix</t>
-  </si>
-  <si>
-    <t>Fenobac</t>
-  </si>
-  <si>
-    <t>Flucloxin</t>
-  </si>
-  <si>
-    <t>Geminox</t>
-  </si>
-  <si>
-    <t>Ketonic</t>
-  </si>
-  <si>
-    <t>Kynol</t>
-  </si>
-  <si>
-    <t>Naprox</t>
-  </si>
-  <si>
-    <t>Oradin</t>
-  </si>
-  <si>
-    <t>Osticare</t>
-  </si>
-  <si>
-    <t>Rupaday</t>
-  </si>
-  <si>
-    <t>Sk-Mox</t>
-  </si>
-  <si>
-    <t>Zithrox</t>
-  </si>
-  <si>
-    <t>Desodin 60ml Syrup</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
-    <t>Dorenta 50mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Fenobac 100ml Syrup</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
-    <t>Geminox 320mg Tablet - 8's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Naprox Plus 500mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Oradin Plus Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Osticare Tablet 24's</t>
-  </si>
-  <si>
-    <t>Rupaday Oral Solution 60ml</t>
-  </si>
-  <si>
-    <t>Sk-Mox 500mg Capsule</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>60 ml</t>
+    <t>Esoral</t>
+  </si>
+  <si>
+    <t>Losectil</t>
+  </si>
+  <si>
+    <t>Rabifast</t>
+  </si>
+  <si>
+    <t>Softi</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule Container 30's</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; Capsule 20</t>
+  </si>
+  <si>
+    <t>Esoral 40mg EC Tablet - 42's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg  Tablet 100's</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; MUPS 20</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet  80's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule (24's)</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule (100's)</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losectil DR Tablet </t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 500s</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule - 48's</t>
+  </si>
+  <si>
+    <t>Rabifast 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Softi Ointment 15gm</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t>42's</t>
+  </si>
+  <si>
     <t>50's</t>
   </si>
   <si>
+    <t>100's</t>
+  </si>
+  <si>
+    <t>80's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>40's</t>
-  </si>
-  <si>
-    <t>100ml</t>
-  </si>
-  <si>
-    <t>36 's</t>
-  </si>
-  <si>
-    <t>30 's</t>
-  </si>
-  <si>
-    <t>8 's</t>
-  </si>
-  <si>
-    <t>5 's</t>
-  </si>
-  <si>
-    <t>4's</t>
+    <t>24 's</t>
+  </si>
+  <si>
+    <t>100 's</t>
+  </si>
+  <si>
+    <t>48 's</t>
   </si>
   <si>
     <t>60 's</t>
   </si>
   <si>
-    <t>50 's</t>
-  </si>
-  <si>
-    <t>40 's</t>
-  </si>
-  <si>
-    <t>24's</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
+    <t>500's</t>
+  </si>
+  <si>
+    <t>48's</t>
+  </si>
+  <si>
+    <t>15gm</t>
   </si>
 </sst>
 </file>
@@ -575,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +532,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -613,163 +541,163 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -777,288 +705,186 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
         <v>43</v>
-      </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>35</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Data/NoSales_last_three_month_copy.xlsx
+++ b/Data/NoSales_last_three_month_copy.xlsx
@@ -43,16 +43,28 @@
     <t>Softi</t>
   </si>
   <si>
+    <t>Esoral 20mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet  80's</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; Capsule 20</t>
+  </si>
+  <si>
     <t>Esoral 20mg Capsule Container 30's</t>
   </si>
   <si>
-    <t>Esoral Injection &amp; Capsule 20</t>
+    <t>Esoral 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet</t>
   </si>
   <si>
     <t>Esoral 40mg EC Tablet - 42's</t>
   </si>
   <si>
-    <t>Esoral 20mg Capsule 50's</t>
+    <t>Esoral 20mg Tablet</t>
   </si>
   <si>
     <t>Esoral 20mg  Tablet 100's</t>
@@ -61,88 +73,76 @@
     <t>Esoral Injection &amp; MUPS 20</t>
   </si>
   <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
+    <t>Losectil 40mg Capsule (24's)</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losectil DR Tablet </t>
   </si>
   <si>
     <t>Losectil 40mg Powder for Oral Suspension</t>
   </si>
   <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+    <t>Losectil 20mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule - 48's</t>
   </si>
   <si>
     <t>Losectil 20mg Capsule (100's)</t>
   </si>
   <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
     <t>Losectil 20mg Capsule 500s</t>
   </si>
   <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
     <t>Rabifast 20mg Tablet - 50's</t>
   </si>
   <si>
     <t>Softi Ointment 15gm</t>
   </si>
   <si>
+    <t>50's</t>
+  </si>
+  <si>
+    <t>80's</t>
+  </si>
+  <si>
+    <t>Bundle</t>
+  </si>
+  <si>
     <t>30's</t>
   </si>
   <si>
-    <t>Bundle</t>
+    <t>20's</t>
   </si>
   <si>
     <t>42's</t>
   </si>
   <si>
-    <t>50's</t>
-  </si>
-  <si>
     <t>100's</t>
   </si>
   <si>
-    <t>80's</t>
-  </si>
-  <si>
-    <t>20's</t>
-  </si>
-  <si>
     <t>24 's</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>60 's</t>
+  </si>
+  <si>
+    <t>48's</t>
+  </si>
+  <si>
     <t>100 's</t>
   </si>
   <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>500's</t>
-  </si>
-  <si>
-    <t>48's</t>
   </si>
   <si>
     <t>15gm</t>
@@ -532,7 +532,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -612,12 +612,12 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -629,12 +629,12 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -663,12 +663,12 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -697,12 +697,12 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -714,12 +714,12 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -731,12 +731,12 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -748,12 +748,12 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -765,12 +765,12 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -782,12 +782,12 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -799,12 +799,12 @@
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -867,12 +867,12 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>

--- a/Data/NoSales_last_three_month_copy.xlsx
+++ b/Data/NoSales_last_three_month_copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>BSL NO</t>
   </si>
@@ -31,121 +31,121 @@
     <t>UOM</t>
   </si>
   <si>
-    <t>Esoral</t>
-  </si>
-  <si>
-    <t>Losectil</t>
-  </si>
-  <si>
-    <t>Rabifast</t>
-  </si>
-  <si>
-    <t>Softi</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; Capsule 20</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule Container 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 40mg EC Tablet - 42's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg  Tablet 100's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; MUPS 20</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule (100's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 500s</t>
-  </si>
-  <si>
-    <t>Rabifast 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Softi Ointment 15gm</t>
-  </si>
-  <si>
-    <t>50's</t>
-  </si>
-  <si>
-    <t>80's</t>
-  </si>
-  <si>
-    <t>Bundle</t>
+    <t>Aldorin</t>
+  </si>
+  <si>
+    <t>Cardoneb</t>
+  </si>
+  <si>
+    <t>Cardovan</t>
+  </si>
+  <si>
+    <t>Dialon</t>
+  </si>
+  <si>
+    <t>GLIKAZID</t>
+  </si>
+  <si>
+    <t>Irbes</t>
+  </si>
+  <si>
+    <t>Ligazid</t>
+  </si>
+  <si>
+    <t>Lipicon</t>
+  </si>
+  <si>
+    <t>Pivasta</t>
+  </si>
+  <si>
+    <t>Sitazid</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet - 24's</t>
+  </si>
+  <si>
+    <t>Cardoneb 5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoneb 2.5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 80/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 160mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 160/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Dialon 4mg Tablet</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Irbes 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet Container 30's</t>
+  </si>
+  <si>
+    <t>Lipicon 40mg Tablet - 10's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Pivasta 2mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid 50mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid 100mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>24's</t>
   </si>
   <si>
     <t>30's</t>
   </si>
   <si>
+    <t>20'S</t>
+  </si>
+  <si>
+    <t>50 's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
-    <t>42's</t>
-  </si>
-  <si>
-    <t>100's</t>
-  </si>
-  <si>
-    <t>24 's</t>
-  </si>
-  <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>48's</t>
-  </si>
-  <si>
-    <t>100 's</t>
-  </si>
-  <si>
-    <t>500's</t>
-  </si>
-  <si>
-    <t>15gm</t>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>20 's</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>40 's</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,7 +532,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -541,143 +541,143 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -685,206 +685,189 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>165</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
